--- a/exercises/excercises/ex003.SplineFit.xlsx
+++ b/exercises/excercises/ex003.SplineFit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D405E7A7-B4EF-47B6-B441-E68ACA7AFE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12035D6-1987-4C7E-980B-150FC13E21D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
+    <workbookView xWindow="-23400" yWindow="480" windowWidth="21300" windowHeight="17400" xr2:uid="{428A209E-8D1B-4A0A-8D1B-7565C5168A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Spline" sheetId="2" r:id="rId1"/>
@@ -160,11 +160,35 @@
     <t>Type</t>
   </si>
   <si>
-    <t>crv_splinefit_1D</t>
+    <t>Упражнения по работе с макросами Unifloc VBA</t>
+  </si>
+  <si>
+    <t>версия</t>
+  </si>
+  <si>
+    <t>2D интерполяция пример</t>
+  </si>
+  <si>
+    <t>AlgLib Spline Functions</t>
+  </si>
+  <si>
+    <t>See AlgLib User Guide for more details of spline types</t>
+  </si>
+  <si>
+    <t>http://www.alglib.net/interpolation/spline3.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See original macroses from </t>
+  </si>
+  <si>
+    <t>https://newtonexcelbach.com/2017/11/28/update-to-al-spline-matrix/</t>
+  </si>
+  <si>
+    <t>crv_fit_spline_1D</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> =crv_splinefit_1D(X Coords, Y Coords, M, </t>
+      <t xml:space="preserve"> =crv_fit_spline_1D(X Coords, Y Coords, M, </t>
     </r>
     <r>
       <rPr>
@@ -188,7 +212,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> =crv_splinefit_1D(X Coords, Y Coords, M, </t>
+      <t xml:space="preserve"> =crv_fit_spline_1D(X Coords, Y Coords, M, </t>
     </r>
     <r>
       <rPr>
@@ -212,7 +236,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> =crv_splinefit_1D(X Coords, Y Coords, Weights, M,</t>
+      <t xml:space="preserve"> =crv_fit_spline_1D(X Coords, Y Coords, Weights, M,</t>
     </r>
     <r>
       <rPr>
@@ -233,30 +257,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Упражнения по работе с макросами Unifloc VBA</t>
-  </si>
-  <si>
-    <t>версия</t>
-  </si>
-  <si>
-    <t>2D интерполяция пример</t>
-  </si>
-  <si>
-    <t>AlgLib Spline Functions</t>
-  </si>
-  <si>
-    <t>See AlgLib User Guide for more details of spline types</t>
-  </si>
-  <si>
-    <t>http://www.alglib.net/interpolation/spline3.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See original macroses from </t>
-  </si>
-  <si>
-    <t>https://newtonexcelbach.com/2017/11/28/update-to-al-spline-matrix/</t>
   </si>
 </sst>
 </file>
@@ -3131,7 +3131,7 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="crv_splinefit_1D"/>
+      <definedName name="crv_fit_spline_1D"/>
       <definedName name="getUFVersion"/>
     </definedNames>
     <sheetDataSet>
@@ -3442,8 +3442,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,10 +3457,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -3469,33 +3469,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,15 +3761,15 @@
         <v>1</v>
       </c>
       <c r="E41" s="15">
-        <f t="array" ref="E41:E141">[1]!crv_splinefit_1D($A$41:$A$141,$C$41:$C$141,E38,$A$41:$A$141)</f>
+        <f t="array" ref="E41:E141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,E38,$A$41:$A$141)</f>
         <v>191.31902386428069</v>
       </c>
       <c r="F41" s="15">
-        <f t="array" ref="F41:F141">[1]!crv_splinefit_1D($A$41:$A$141,$C$41:$C$141,F38,$A$41:$A$141,D41:D141,I41:I42,J41:J42,K41:K42)</f>
+        <f t="array" ref="F41:F141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,F38,$A$41:$A$141,D41:D141,I41:I42,J41:J42,K41:K42)</f>
         <v>191.2873645074479</v>
       </c>
       <c r="G41" s="15">
-        <f t="array" ref="G41:G141">[1]!crv_splinefit_1D($A$41:$A$141,$C$41:$C$141,G38,$A$41:$A$141)</f>
+        <f t="array" ref="G41:G141">[1]!crv_fit_spline_1D($A$41:$A$141,$C$41:$C$141,G38,$A$41:$A$141)</f>
         <v>191.31902386428069</v>
       </c>
       <c r="I41">
